--- a/MarchRoutine1.xlsx
+++ b/MarchRoutine1.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>S.No</t>
   </si>
@@ -47,41 +48,47 @@
     <t>MARCH</t>
   </si>
   <si>
-    <t>Angular</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>From 6am to7am</t>
-  </si>
-  <si>
-    <t>From 2pm to 3pm</t>
-  </si>
-  <si>
-    <t>From 4:30pm to 8pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 8:30pm to 10pm </t>
-  </si>
-  <si>
-    <t>Angular Basic</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>From  10:30pm to 11:30pm, Unable to link Angular and Api</t>
-  </si>
-  <si>
-    <t>Practice</t>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>not completed</t>
+  </si>
+  <si>
+    <t>Core java</t>
+  </si>
+  <si>
+    <t>Program Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubt discuss </t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>…….</t>
+  </si>
+  <si>
+    <t>with Asif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From Beginning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +112,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +140,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,11 +163,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -155,8 +191,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,10 +476,15 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
@@ -473,7 +516,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -494,44 +537,41 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>44199</v>
+        <v>44289</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>44199</v>
+        <v>44289</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -539,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>44198</v>
+        <v>44288</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -559,19 +599,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>44199</v>
+        <v>44289</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -579,22 +616,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>44199</v>
+        <v>44289</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -604,4 +641,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>